--- a/Data_Excel_Output/Results_of_Table1.xlsx.xlsx
+++ b/Data_Excel_Output/Results_of_Table1.xlsx.xlsx
@@ -16,16 +16,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
+    <t>баркоды</t>
+  </si>
+  <si>
+    <t>реал. описание баркода</t>
+  </si>
+  <si>
+    <t>результат</t>
+  </si>
+  <si>
     <t>карточка товара</t>
-  </si>
-  <si>
-    <t>баркоды</t>
-  </si>
-  <si>
-    <t>реал. описание баркода</t>
-  </si>
-  <si>
-    <t>результат</t>
   </si>
   <si>
     <t>Кофе 100гр</t>
@@ -503,13 +503,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,432 +522,354 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
         <v>123</v>
       </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
       <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
         <v>234</v>
       </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
       <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
+        <v>345</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="C4">
-        <v>345</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B5">
+        <v>456</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>124</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>125</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>126</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>435</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>453</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>666</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>777</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
+      <c r="B13">
+        <v>564</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>6</v>
+      </c>
+      <c r="B14">
         <v>456</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>356</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>444</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>236</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
         <v>7</v>
       </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>124</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B18">
+        <v>120</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>111</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>101</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>125</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B21">
+        <v>199</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
         <v>9</v>
       </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>126</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>435</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>453</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
+      <c r="B22">
+        <v>234</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>666</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>777</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13">
-        <v>564</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>6</v>
-      </c>
-      <c r="C14">
+      <c r="B23">
         <v>456</v>
       </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>6</v>
-      </c>
-      <c r="C15">
-        <v>356</v>
-      </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>6</v>
-      </c>
-      <c r="C16">
-        <v>444</v>
-      </c>
-      <c r="D16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>6</v>
-      </c>
-      <c r="C17">
-        <v>236</v>
-      </c>
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>7</v>
-      </c>
-      <c r="C18">
-        <v>120</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>7</v>
-      </c>
-      <c r="C19">
-        <v>111</v>
-      </c>
-      <c r="D19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>7</v>
-      </c>
-      <c r="C20">
-        <v>101</v>
-      </c>
-      <c r="D20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>8</v>
-      </c>
-      <c r="C21">
-        <v>199</v>
-      </c>
-      <c r="D21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22">
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
         <v>9</v>
       </c>
-      <c r="C22">
-        <v>234</v>
-      </c>
-      <c r="D22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23">
+      <c r="B24">
+        <v>556</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
         <v>9</v>
       </c>
-      <c r="C23">
-        <v>456</v>
-      </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24">
+      <c r="B25">
+        <v>598</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
         <v>9</v>
       </c>
-      <c r="C24">
-        <v>556</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>9</v>
-      </c>
-      <c r="C25">
-        <v>598</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
       <c r="B26">
-        <v>9</v>
-      </c>
-      <c r="C26">
         <v>689</v>
       </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
       <c r="D26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" t="s">
         <v>43</v>
       </c>
     </row>
